--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159346.8178748638</v>
+        <v>150222.8188813993</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12380307.21333351</v>
+        <v>12380307.21333353</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="C11" t="n">
-        <v>193.3854158231843</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="E11" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>219.5565574740966</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>91.13088952452711</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>49.92212426944722</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.85721528991136</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>125.6559396670809</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>193.3854158231842</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="U13" t="n">
-        <v>219.5565574740966</v>
+        <v>50.81741644479495</v>
       </c>
       <c r="V13" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>219.5565574740966</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144.4644909699662</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>275.3708371773614</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.3708371773616</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>275.3708371773616</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>24.84282015782117</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.0821424158537</v>
+        <v>98.08214241585367</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>275.3708371773614</v>
+        <v>119.6216708121452</v>
       </c>
       <c r="Y14" t="n">
-        <v>275.3708371773614</v>
+        <v>275.3708371773616</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.0785498519419</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>61.91106066572941</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>134.3446355591963</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>129.4201164429325</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>52.69270950293064</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.3708371773614</v>
+        <v>275.3708371773616</v>
       </c>
       <c r="V16" t="n">
-        <v>59.46870541914488</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>275.3708371773614</v>
+        <v>275.3708371773616</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>24.6954347364772</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>283.1577256476068</v>
+        <v>39.81642272040875</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.2735329548994</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S19" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9132448002744</v>
@@ -2064,7 +2064,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>244.5836395775856</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>388.195513706348</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>258.7187231585243</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2177,7 +2177,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H21" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>83.78946074098184</v>
       </c>
       <c r="T21" t="n">
-        <v>152.731237034806</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U21" t="n">
         <v>195.2954114342289</v>
@@ -2241,10 +2241,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>15.12229503071639</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>166.3415337283568</v>
+        <v>65.30616459331635</v>
       </c>
       <c r="T22" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>300.231626005198</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>28.67594000889678</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3037726831681</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2411,10 +2411,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>104.6754635109998</v>
+        <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>138.5948255084813</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2490,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>122.731067768468</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>72.83691809691689</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>77.58741107097072</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098218</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>90.3096168695706</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>124.2182097781181</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9132448002744</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>363.256094194712</v>
       </c>
       <c r="D29" t="n">
-        <v>339.3433557606793</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521505042</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>99.06694644220644</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>90.30961686957063</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3031,19 +3031,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188677</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>101.688925795162</v>
       </c>
       <c r="Y32" t="n">
-        <v>260.3238247580578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>34.19557602201519</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>164.5343322142292</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5700123648426597</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
         <v>279.9132448002744</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>76.01545370482198</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>283.9738944557603</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
@@ -3328,13 +3328,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>378.4680956387901</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505086</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>124.0126497133687</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.49796586733679</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S37" t="n">
-        <v>14.19168779637745</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>4.414950475356295</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>66.91941524634973</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5343322142292</v>
+        <v>100.3903486031076</v>
       </c>
       <c r="H40" t="n">
-        <v>49.00585432310527</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>232.6944259398202</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>73.89493154320715</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>324.8378223519654</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>116.1884165547042</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>245.2749309204555</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T44" t="n">
         <v>209.8004861190321</v>
@@ -4036,13 +4036,13 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>253.5041209798383</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>354.6620996198936</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>152.7312370348056</v>
       </c>
       <c r="U45" t="n">
-        <v>195.2954114342289</v>
+        <v>195.2954114342297</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4137,22 +4137,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>89.91702274021716</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>163.7023358290273</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>656.4519294175011</v>
+        <v>461.1131255556986</v>
       </c>
       <c r="C11" t="n">
-        <v>461.1131255556988</v>
+        <v>461.1131255556986</v>
       </c>
       <c r="D11" t="n">
-        <v>461.1131255556988</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="E11" t="n">
-        <v>239.3388250768133</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="F11" t="n">
         <v>17.56452459792773</v>
@@ -5041,52 +5041,52 @@
         <v>17.56452459792773</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422714</v>
+        <v>61.76566646422719</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474254</v>
+        <v>148.5608200474256</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723312</v>
+        <v>271.1830965723314</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543864</v>
+        <v>420.4501281543865</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547435</v>
+        <v>574.0010487547436</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809678</v>
+        <v>713.5940480809679</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598429</v>
+        <v>818.7605380598427</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963866</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963866</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963866</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="V11" t="n">
-        <v>656.4519294175011</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="W11" t="n">
-        <v>656.4519294175011</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="X11" t="n">
-        <v>656.4519294175011</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="Y11" t="n">
-        <v>656.4519294175011</v>
+        <v>682.8874260345841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.4837287565566</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="C12" t="n">
-        <v>138.0573406055998</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="D12" t="n">
-        <v>138.0573406055998</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="E12" t="n">
-        <v>17.56452459792773</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="F12" t="n">
-        <v>17.56452459792773</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56452459792773</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="H12" t="n">
         <v>17.56452459792773</v>
@@ -5120,52 +5120,52 @@
         <v>17.56452459792773</v>
       </c>
       <c r="J12" t="n">
-        <v>36.2691938677775</v>
+        <v>36.26919386777751</v>
       </c>
       <c r="K12" t="n">
-        <v>184.2613629442267</v>
+        <v>99.89115689943331</v>
       </c>
       <c r="L12" t="n">
-        <v>288.5695728460219</v>
+        <v>317.2521487987889</v>
       </c>
       <c r="M12" t="n">
-        <v>418.1318655107683</v>
+        <v>446.8144414635354</v>
       </c>
       <c r="N12" t="n">
-        <v>635.492857410124</v>
+        <v>585.6413636813614</v>
       </c>
       <c r="O12" t="n">
-        <v>753.4933521432234</v>
+        <v>703.6418584144609</v>
       </c>
       <c r="P12" t="n">
-        <v>840.3692604453884</v>
+        <v>840.3692604453881</v>
       </c>
       <c r="Q12" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="R12" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="S12" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="T12" t="n">
-        <v>878.2262298963866</v>
+        <v>721.9122566950546</v>
       </c>
       <c r="U12" t="n">
-        <v>878.2262298963866</v>
+        <v>524.6108673340077</v>
       </c>
       <c r="V12" t="n">
-        <v>664.5147028894204</v>
+        <v>524.6108673340077</v>
       </c>
       <c r="W12" t="n">
-        <v>664.5147028894204</v>
+        <v>397.6856757510977</v>
       </c>
       <c r="X12" t="n">
-        <v>488.1887210283132</v>
+        <v>221.3596938899905</v>
       </c>
       <c r="Y12" t="n">
-        <v>328.7867613921432</v>
+        <v>221.3596938899905</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.56452459792773</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="C13" t="n">
-        <v>17.56452459792773</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="D13" t="n">
-        <v>17.56452459792773</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="E13" t="n">
-        <v>17.56452459792773</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="F13" t="n">
-        <v>17.56452459792773</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="G13" t="n">
-        <v>17.56452459792773</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="H13" t="n">
         <v>17.56452459792773</v>
@@ -5199,52 +5199,52 @@
         <v>17.56452459792773</v>
       </c>
       <c r="J13" t="n">
-        <v>17.56452459792773</v>
+        <v>75.28691789969619</v>
       </c>
       <c r="K13" t="n">
-        <v>37.5503278868253</v>
+        <v>292.6479097990518</v>
       </c>
       <c r="L13" t="n">
-        <v>254.911319786181</v>
+        <v>510.0089016984075</v>
       </c>
       <c r="M13" t="n">
-        <v>472.2723116855366</v>
+        <v>551.0639479981975</v>
       </c>
       <c r="N13" t="n">
-        <v>689.6333035848922</v>
+        <v>594.3250950514278</v>
       </c>
       <c r="O13" t="n">
-        <v>858.794231304307</v>
+        <v>626.0569653630039</v>
       </c>
       <c r="P13" t="n">
-        <v>878.2262298963866</v>
+        <v>761.0116111609714</v>
       </c>
       <c r="Q13" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="R13" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="S13" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="T13" t="n">
-        <v>682.8874260345843</v>
+        <v>656.4519294175009</v>
       </c>
       <c r="U13" t="n">
-        <v>461.1131255556988</v>
+        <v>605.1212057358898</v>
       </c>
       <c r="V13" t="n">
-        <v>239.3388250768133</v>
+        <v>605.1212057358898</v>
       </c>
       <c r="W13" t="n">
-        <v>17.56452459792773</v>
+        <v>383.3469052570043</v>
       </c>
       <c r="X13" t="n">
-        <v>17.56452459792773</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.56452459792773</v>
+        <v>161.5726047781188</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300.1820277594024</v>
+        <v>603.4281462797894</v>
       </c>
       <c r="C14" t="n">
-        <v>22.02966697418891</v>
+        <v>603.4281462797894</v>
       </c>
       <c r="D14" t="n">
-        <v>22.02966697418891</v>
+        <v>325.2757854945756</v>
       </c>
       <c r="E14" t="n">
-        <v>22.02966697418891</v>
+        <v>47.12342470936184</v>
       </c>
       <c r="F14" t="n">
-        <v>22.02966697418891</v>
+        <v>47.12342470936184</v>
       </c>
       <c r="G14" t="n">
-        <v>22.02966697418891</v>
+        <v>47.12342470936184</v>
       </c>
       <c r="H14" t="n">
-        <v>22.02966697418891</v>
+        <v>47.12342470936184</v>
       </c>
       <c r="I14" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="J14" t="n">
-        <v>81.61576146395976</v>
+        <v>81.6157614639601</v>
       </c>
       <c r="K14" t="n">
-        <v>191.4689708921976</v>
+        <v>191.4689708921982</v>
       </c>
       <c r="L14" t="n">
-        <v>342.6968046256455</v>
+        <v>342.6968046256463</v>
       </c>
       <c r="M14" t="n">
-        <v>523.7930303030032</v>
+        <v>523.7930303030042</v>
       </c>
       <c r="N14" t="n">
-        <v>709.6881746355226</v>
+        <v>709.6881746355239</v>
       </c>
       <c r="O14" t="n">
-        <v>879.8229072578246</v>
+        <v>879.822907257826</v>
       </c>
       <c r="P14" t="n">
-        <v>1011.056059996929</v>
+        <v>1011.05605999693</v>
       </c>
       <c r="Q14" t="n">
-        <v>1090.096729993598</v>
+        <v>1090.096729993599</v>
       </c>
       <c r="R14" t="n">
-        <v>1101.483348709445</v>
+        <v>1101.483348709447</v>
       </c>
       <c r="S14" t="n">
-        <v>1002.41047758232</v>
+        <v>1002.410477582322</v>
       </c>
       <c r="T14" t="n">
-        <v>1002.41047758232</v>
+        <v>1002.410477582322</v>
       </c>
       <c r="U14" t="n">
-        <v>1002.41047758232</v>
+        <v>1002.410477582322</v>
       </c>
       <c r="V14" t="n">
-        <v>1002.41047758232</v>
+        <v>1002.410477582322</v>
       </c>
       <c r="W14" t="n">
-        <v>1002.41047758232</v>
+        <v>1002.410477582322</v>
       </c>
       <c r="X14" t="n">
-        <v>724.258116797107</v>
+        <v>881.5805070650032</v>
       </c>
       <c r="Y14" t="n">
-        <v>446.1057560118936</v>
+        <v>603.4281462797894</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>671.0509660912924</v>
+        <v>276.5175542329152</v>
       </c>
       <c r="C15" t="n">
-        <v>537.055894840238</v>
+        <v>142.5224829818609</v>
       </c>
       <c r="D15" t="n">
-        <v>420.1587370596304</v>
+        <v>142.5224829818609</v>
       </c>
       <c r="E15" t="n">
-        <v>299.6659210519584</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="F15" t="n">
-        <v>190.706041234463</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="G15" t="n">
-        <v>84.56609188906711</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="H15" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="I15" t="n">
-        <v>30.38245482115028</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="J15" t="n">
-        <v>58.25029647606289</v>
+        <v>200.6413277691126</v>
       </c>
       <c r="K15" t="n">
-        <v>137.5335806024152</v>
+        <v>279.924611895465</v>
       </c>
       <c r="L15" t="n">
-        <v>262.900369443096</v>
+        <v>405.2914007361459</v>
       </c>
       <c r="M15" t="n">
-        <v>417.0370304605225</v>
+        <v>559.4280617535725</v>
       </c>
       <c r="N15" t="n">
-        <v>581.0887314380087</v>
+        <v>723.4797627310588</v>
       </c>
       <c r="O15" t="n">
-        <v>722.1649706756577</v>
+        <v>864.556001968708</v>
       </c>
       <c r="P15" t="n">
-        <v>969.9522296293447</v>
+        <v>969.9522296293459</v>
       </c>
       <c r="Q15" t="n">
-        <v>1020.189542105034</v>
+        <v>1020.189542105035</v>
       </c>
       <c r="R15" t="n">
-        <v>1101.483348709445</v>
+        <v>1101.483348709447</v>
       </c>
       <c r="S15" t="n">
-        <v>1101.483348709445</v>
+        <v>1101.483348709447</v>
       </c>
       <c r="T15" t="n">
-        <v>1101.483348709445</v>
+        <v>1101.483348709447</v>
       </c>
       <c r="U15" t="n">
-        <v>1101.483348709445</v>
+        <v>1101.483348709447</v>
       </c>
       <c r="V15" t="n">
-        <v>1101.483348709445</v>
+        <v>965.7816966294503</v>
       </c>
       <c r="W15" t="n">
-        <v>1101.483348709445</v>
+        <v>752.548528365779</v>
       </c>
       <c r="X15" t="n">
-        <v>970.755958363049</v>
+        <v>576.2225465046719</v>
       </c>
       <c r="Y15" t="n">
-        <v>811.353998726879</v>
+        <v>416.8205868685019</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.02966697418891</v>
+        <v>193.1230394124724</v>
       </c>
       <c r="C16" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="D16" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="E16" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="F16" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="G16" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="H16" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="I16" t="n">
-        <v>22.02966697418891</v>
+        <v>22.02966697418893</v>
       </c>
       <c r="J16" t="n">
-        <v>85.50074015800858</v>
+        <v>85.50074015800864</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9333904177965</v>
+        <v>321.2135840035107</v>
       </c>
       <c r="L16" t="n">
-        <v>387.5505192233843</v>
+        <v>593.8307128090987</v>
       </c>
       <c r="M16" t="n">
-        <v>441.351417034838</v>
+        <v>866.4478416146867</v>
       </c>
       <c r="N16" t="n">
-        <v>675.5767418917312</v>
+        <v>922.1517723190124</v>
       </c>
       <c r="O16" t="n">
-        <v>948.193870697319</v>
+        <v>965.376567255268</v>
       </c>
       <c r="P16" t="n">
-        <v>977.4600517698934</v>
+        <v>1101.483348709447</v>
       </c>
       <c r="Q16" t="n">
-        <v>1101.483348709445</v>
+        <v>1101.483348709447</v>
       </c>
       <c r="R16" t="n">
-        <v>1101.483348709445</v>
+        <v>1048.258389615577</v>
       </c>
       <c r="S16" t="n">
-        <v>1101.483348709445</v>
+        <v>1048.258389615577</v>
       </c>
       <c r="T16" t="n">
-        <v>1101.483348709445</v>
+        <v>1048.258389615577</v>
       </c>
       <c r="U16" t="n">
-        <v>823.330987924232</v>
+        <v>770.1060288303635</v>
       </c>
       <c r="V16" t="n">
-        <v>763.2615885109543</v>
+        <v>496.2202837698854</v>
       </c>
       <c r="W16" t="n">
-        <v>485.1092277257408</v>
+        <v>218.0679229846716</v>
       </c>
       <c r="X16" t="n">
-        <v>246.7653655854242</v>
+        <v>193.1230394124724</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.02966697418891</v>
+        <v>193.1230394124724</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1145.308487030664</v>
+        <v>781.8875788697469</v>
       </c>
       <c r="C17" t="n">
-        <v>1145.308487030664</v>
+        <v>781.8875788697469</v>
       </c>
       <c r="D17" t="n">
-        <v>740.8445571237244</v>
+        <v>781.8875788697469</v>
       </c>
       <c r="E17" t="n">
-        <v>326.5043416406211</v>
+        <v>367.5473633866436</v>
       </c>
       <c r="F17" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G17" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H17" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I17" t="n">
-        <v>44.64574590746555</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J17" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K17" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L17" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M17" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N17" t="n">
         <v>1272.218803576257</v>
@@ -5533,7 +5533,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P17" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q17" t="n">
         <v>1966.084838463273</v>
@@ -5542,25 +5542,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T17" t="n">
-        <v>1812.402164354919</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U17" t="n">
-        <v>1555.529666695153</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V17" t="n">
-        <v>1555.529666695153</v>
+        <v>1592.752156365284</v>
       </c>
       <c r="W17" t="n">
-        <v>1555.529666695153</v>
+        <v>1592.752156365284</v>
       </c>
       <c r="X17" t="n">
-        <v>1555.529666695153</v>
+        <v>1192.108758534236</v>
       </c>
       <c r="Y17" t="n">
-        <v>1555.529666695153</v>
+        <v>1192.108758534236</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I18" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J18" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K18" t="n">
-        <v>264.5117467880019</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L18" t="n">
-        <v>476.5243313096593</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M18" t="n">
-        <v>731.7725490686273</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N18" t="n">
-        <v>999.6119288277765</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O18" t="n">
-        <v>1235.633617581756</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P18" t="n">
-        <v>1417.231939017939</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q18" t="n">
         <v>1918.251596225539</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>199.9810816231587</v>
+        <v>531.9852691931227</v>
       </c>
       <c r="C19" t="n">
-        <v>199.9810816231587</v>
+        <v>360.8918967548392</v>
       </c>
       <c r="D19" t="n">
-        <v>40.48643694606873</v>
+        <v>201.3972520777492</v>
       </c>
       <c r="E19" t="n">
         <v>40.48643694606873</v>
@@ -5679,16 +5679,16 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L19" t="n">
-        <v>506.8233170565554</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M19" t="n">
-        <v>958.033535442436</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N19" t="n">
-        <v>1396.967762018482</v>
+        <v>1451.145037964105</v>
       </c>
       <c r="O19" t="n">
-        <v>1802.555103535984</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P19" t="n">
         <v>1872.284155743751</v>
@@ -5697,28 +5697,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R19" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S19" t="n">
-        <v>1856.300096062672</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="T19" t="n">
-        <v>1621.255221375985</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="U19" t="n">
-        <v>1338.514570062576</v>
+        <v>1703.704462790698</v>
       </c>
       <c r="V19" t="n">
-        <v>1064.628825002098</v>
+        <v>1429.81871773022</v>
       </c>
       <c r="W19" t="n">
-        <v>785.5591605109726</v>
+        <v>1182.764536338719</v>
       </c>
       <c r="X19" t="n">
-        <v>547.215298370656</v>
+        <v>944.4206741984024</v>
       </c>
       <c r="Y19" t="n">
-        <v>322.4795997594207</v>
+        <v>719.6849755871671</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>838.9814755556475</v>
+        <v>1280.320994382424</v>
       </c>
       <c r="C20" t="n">
-        <v>446.8647950441849</v>
+        <v>1280.320994382424</v>
       </c>
       <c r="D20" t="n">
-        <v>446.8647950441849</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E20" t="n">
-        <v>446.8647950441849</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8647950441849</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G20" t="n">
         <v>40.48643694606873</v>
@@ -5755,13 +5755,13 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K20" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L20" t="n">
         <v>641.1850750879075</v>
       </c>
       <c r="M20" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N20" t="n">
         <v>1272.218803576257</v>
@@ -5779,25 +5779,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S20" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T20" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U20" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V20" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W20" t="n">
-        <v>1640.561546438605</v>
+        <v>1681.257667434334</v>
       </c>
       <c r="X20" t="n">
-        <v>1239.918148607557</v>
+        <v>1681.257667434334</v>
       </c>
       <c r="Y20" t="n">
-        <v>838.9814755556475</v>
+        <v>1280.320994382424</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C21" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D21" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E21" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F21" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G21" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H21" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I21" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J21" t="n">
-        <v>208.7594707336913</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K21" t="n">
-        <v>352.4814632649828</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L21" t="n">
-        <v>564.4940477866402</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M21" t="n">
-        <v>819.7422655456082</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N21" t="n">
-        <v>1087.581645304758</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O21" t="n">
-        <v>1323.603334058737</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P21" t="n">
-        <v>1505.20165549492</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q21" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R21" t="n">
         <v>2024.321847303436</v>
@@ -5861,22 +5861,22 @@
         <v>1939.686028373152</v>
       </c>
       <c r="T21" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U21" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V21" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W21" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X21" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y21" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>687.73530291698</v>
+        <v>696.6163950825314</v>
       </c>
       <c r="C22" t="n">
-        <v>687.73530291698</v>
+        <v>525.5230226442479</v>
       </c>
       <c r="D22" t="n">
-        <v>687.73530291698</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E22" t="n">
-        <v>526.8244877852994</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F22" t="n">
-        <v>362.1933618958907</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G22" t="n">
-        <v>195.9970667300026</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H22" t="n">
-        <v>55.76148243164084</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I22" t="n">
         <v>40.48643694606873</v>
@@ -5913,22 +5913,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K22" t="n">
-        <v>219.6034981877564</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L22" t="n">
-        <v>633.0972772623925</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M22" t="n">
-        <v>1084.307495648273</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N22" t="n">
-        <v>1523.241722224319</v>
+        <v>1451.145037964105</v>
       </c>
       <c r="O22" t="n">
-        <v>1928.829063741821</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P22" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q22" t="n">
         <v>2024.321847303436</v>
@@ -5937,25 +5937,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S22" t="n">
-        <v>1856.300096062672</v>
+        <v>1958.356024481905</v>
       </c>
       <c r="T22" t="n">
-        <v>1621.255221375985</v>
+        <v>1958.356024481905</v>
       </c>
       <c r="U22" t="n">
-        <v>1338.514570062576</v>
+        <v>1675.615373168496</v>
       </c>
       <c r="V22" t="n">
-        <v>1338.514570062576</v>
+        <v>1401.729628108018</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.514570062576</v>
+        <v>1122.659963616892</v>
       </c>
       <c r="X22" t="n">
-        <v>1100.17070792226</v>
+        <v>884.3161014765758</v>
       </c>
       <c r="Y22" t="n">
-        <v>875.4350093110244</v>
+        <v>884.3161014765758</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1154.592993643244</v>
+        <v>473.9159628215908</v>
       </c>
       <c r="C23" t="n">
-        <v>851.3287249511243</v>
+        <v>473.9159628215908</v>
       </c>
       <c r="D23" t="n">
-        <v>446.8647950441849</v>
+        <v>69.45203291465134</v>
       </c>
       <c r="E23" t="n">
-        <v>446.8647950441849</v>
+        <v>69.45203291465134</v>
       </c>
       <c r="F23" t="n">
-        <v>446.8647950441849</v>
+        <v>69.45203291465134</v>
       </c>
       <c r="G23" t="n">
         <v>40.48643694606873</v>
@@ -5986,16 +5986,16 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492901</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752967</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879079</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M23" t="n">
         <v>953.2429319501309</v>
@@ -6007,7 +6007,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P23" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q23" t="n">
         <v>1966.084838463273</v>
@@ -6016,25 +6016,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T23" t="n">
-        <v>1812.402164354919</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U23" t="n">
-        <v>1555.529666695153</v>
+        <v>1685.717213369038</v>
       </c>
       <c r="V23" t="n">
-        <v>1555.529666695153</v>
+        <v>1685.717213369038</v>
       </c>
       <c r="W23" t="n">
-        <v>1555.529666695153</v>
+        <v>1685.717213369038</v>
       </c>
       <c r="X23" t="n">
-        <v>1555.529666695153</v>
+        <v>1285.07381553799</v>
       </c>
       <c r="Y23" t="n">
-        <v>1154.592993643244</v>
+        <v>884.1371424860803</v>
       </c>
     </row>
     <row r="24">
@@ -6047,49 +6047,49 @@
         <v>685.1682898090093</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579549</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773475</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696755</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521801</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I24" t="n">
-        <v>62.57863487475248</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J24" t="n">
-        <v>128.1484679399048</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K24" t="n">
-        <v>271.8704604711964</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L24" t="n">
-        <v>483.8830449928538</v>
+        <v>564.4940477866402</v>
       </c>
       <c r="M24" t="n">
-        <v>898.4355346936861</v>
+        <v>819.7422655456082</v>
       </c>
       <c r="N24" t="n">
-        <v>1399.455191901287</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O24" t="n">
-        <v>1635.476880655266</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P24" t="n">
-        <v>1817.075202091449</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q24" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.221312702521</v>
       </c>
       <c r="R24" t="n">
         <v>2024.321847303436</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1056.596182467384</v>
+        <v>820.5871706062366</v>
       </c>
       <c r="C25" t="n">
-        <v>916.6014092264938</v>
+        <v>649.4937981679531</v>
       </c>
       <c r="D25" t="n">
-        <v>757.1067645494038</v>
+        <v>489.9991534908631</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1959494177233</v>
+        <v>329.0883383591826</v>
       </c>
       <c r="F25" t="n">
-        <v>431.5648235283147</v>
+        <v>164.4572124697738</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J25" t="n">
-        <v>62.60916429909253</v>
+        <v>62.60916429909252</v>
       </c>
       <c r="K25" t="n">
-        <v>337.1911823108422</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L25" t="n">
-        <v>717.1661433035599</v>
+        <v>544.4047677997642</v>
       </c>
       <c r="M25" t="n">
-        <v>823.4100121751551</v>
+        <v>995.6149861856447</v>
       </c>
       <c r="N25" t="n">
-        <v>1262.344238751201</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O25" t="n">
-        <v>1667.931580268703</v>
+        <v>1840.136554279193</v>
       </c>
       <c r="P25" t="n">
-        <v>1998.558115949588</v>
+        <v>1909.865606486959</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V25" t="n">
-        <v>1986.445114104106</v>
+        <v>1750.436102242958</v>
       </c>
       <c r="W25" t="n">
-        <v>1707.37544961298</v>
+        <v>1471.366437751833</v>
       </c>
       <c r="X25" t="n">
-        <v>1469.031587472664</v>
+        <v>1233.022575611516</v>
       </c>
       <c r="Y25" t="n">
-        <v>1244.295888861428</v>
+        <v>1008.286877000281</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>821.9318111668026</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="C26" t="n">
-        <v>821.9318111668026</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="D26" t="n">
-        <v>821.9318111668026</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="E26" t="n">
-        <v>748.3591666244623</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F26" t="n">
-        <v>327.3287545781499</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G26" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746557</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J26" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752961</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M26" t="n">
         <v>953.2429319501307</v>
@@ -6241,7 +6241,7 @@
         <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P26" t="n">
         <v>1806.502667397418</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T26" t="n">
-        <v>1812.402164354919</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U26" t="n">
-        <v>1555.529666695153</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="V26" t="n">
-        <v>1205.692112031634</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="W26" t="n">
-        <v>821.9318111668026</v>
+        <v>1346.909727215454</v>
       </c>
       <c r="X26" t="n">
-        <v>821.9318111668026</v>
+        <v>946.2663293844071</v>
       </c>
       <c r="Y26" t="n">
-        <v>821.9318111668026</v>
+        <v>867.8952070904973</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G27" t="n">
         <v>99.09057352692761</v>
@@ -6302,31 +6302,31 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505508</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J27" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K27" t="n">
-        <v>252.302656621499</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L27" t="n">
-        <v>464.3152411431564</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M27" t="n">
-        <v>719.5634589021246</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N27" t="n">
-        <v>1220.583116109725</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O27" t="n">
-        <v>1456.604804863705</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P27" t="n">
-        <v>1638.203126299888</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
@@ -6335,7 +6335,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U27" t="n">
         <v>1588.14395921251</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.8016446061407</v>
+        <v>963.8900878271887</v>
       </c>
       <c r="C28" t="n">
-        <v>131.7082721678572</v>
+        <v>792.7967153889052</v>
       </c>
       <c r="D28" t="n">
-        <v>40.48643694606873</v>
+        <v>633.3020707118153</v>
       </c>
       <c r="E28" t="n">
-        <v>40.48643694606873</v>
+        <v>472.3912555801348</v>
       </c>
       <c r="F28" t="n">
-        <v>40.48643694606873</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G28" t="n">
-        <v>40.48643694606873</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H28" t="n">
         <v>40.48643694606873</v>
@@ -6387,19 +6387,19 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K28" t="n">
-        <v>219.6034981877564</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L28" t="n">
-        <v>633.0972772623925</v>
+        <v>609.4061314311004</v>
       </c>
       <c r="M28" t="n">
-        <v>1084.307495648273</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N28" t="n">
-        <v>1523.241722224319</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O28" t="n">
-        <v>1928.829063741821</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P28" t="n">
         <v>1998.558115949588</v>
@@ -6414,22 +6414,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T28" t="n">
-        <v>1789.276972616749</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U28" t="n">
-        <v>1506.536321303341</v>
+        <v>1741.581195990028</v>
       </c>
       <c r="V28" t="n">
-        <v>1232.650576242863</v>
+        <v>1467.69545092955</v>
       </c>
       <c r="W28" t="n">
-        <v>953.5809117517369</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="X28" t="n">
-        <v>715.2370496114204</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="Y28" t="n">
-        <v>490.5013510001851</v>
+        <v>963.8900878271887</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1614.100667638947</v>
+        <v>407.4117846174951</v>
       </c>
       <c r="C29" t="n">
-        <v>1203.976076952217</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="D29" t="n">
-        <v>861.2050105272881</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="E29" t="n">
-        <v>446.8647950441849</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F29" t="n">
-        <v>446.8647950441849</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G29" t="n">
         <v>40.48643694606873</v>
@@ -6460,28 +6460,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746557</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J29" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L29" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501312</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N29" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P29" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q29" t="n">
         <v>1966.084838463273</v>
@@ -6490,25 +6490,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V29" t="n">
-        <v>2024.321847303436</v>
+        <v>1592.752156365284</v>
       </c>
       <c r="W29" t="n">
-        <v>2024.321847303436</v>
+        <v>1208.991855500452</v>
       </c>
       <c r="X29" t="n">
-        <v>2024.321847303436</v>
+        <v>808.348457669405</v>
       </c>
       <c r="Y29" t="n">
-        <v>2024.321847303436</v>
+        <v>407.4117846174951</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579549</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D30" t="n">
         <v>434.2760607773473</v>
@@ -6533,34 +6533,34 @@
         <v>204.8233649521799</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692774</v>
+        <v>99.09057352692753</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505508</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648407</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961322</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177896</v>
+        <v>564.4940477866402</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767578</v>
+        <v>819.7422655456082</v>
       </c>
       <c r="N30" t="n">
-        <v>1231.071242635907</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O30" t="n">
-        <v>1723.446597132247</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P30" t="n">
-        <v>1905.04491856843</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q30" t="n">
         <v>2006.22131270252</v>
@@ -6569,16 +6569,16 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S30" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T30" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U30" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V30" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W30" t="n">
         <v>1161.199263941873</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.7104374069062</v>
+        <v>211.5798093843522</v>
       </c>
       <c r="C31" t="n">
-        <v>611.6170649686227</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="D31" t="n">
-        <v>511.5494422997273</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="E31" t="n">
-        <v>511.5494422997273</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F31" t="n">
-        <v>346.9183164103185</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G31" t="n">
-        <v>180.7220212444305</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H31" t="n">
         <v>40.48643694606873</v>
@@ -6624,49 +6624,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>195.9123523564645</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L31" t="n">
-        <v>609.4061314311006</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M31" t="n">
-        <v>1060.616349816981</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N31" t="n">
-        <v>1499.550576393028</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O31" t="n">
-        <v>1905.137917910529</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P31" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q31" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.445114104106</v>
+        <v>1933.100012081648</v>
       </c>
       <c r="T31" t="n">
-        <v>1986.445114104106</v>
+        <v>1698.055137394961</v>
       </c>
       <c r="U31" t="n">
-        <v>1986.445114104106</v>
+        <v>1415.314486081552</v>
       </c>
       <c r="V31" t="n">
-        <v>1712.559369043628</v>
+        <v>1141.428741021074</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.489704552502</v>
+        <v>862.3590765299484</v>
       </c>
       <c r="X31" t="n">
-        <v>1195.145842412186</v>
+        <v>624.0152143896319</v>
       </c>
       <c r="Y31" t="n">
-        <v>970.4101438009506</v>
+        <v>399.2795157783966</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1269.415173022841</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="C32" t="n">
-        <v>859.2905823361116</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="D32" t="n">
-        <v>454.826652429172</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="E32" t="n">
-        <v>40.48643694606873</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F32" t="n">
-        <v>40.48643694606873</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G32" t="n">
         <v>40.48643694606873</v>
@@ -6697,28 +6697,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746557</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L32" t="n">
         <v>641.1850750879078</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P32" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q32" t="n">
         <v>1966.084838463273</v>
@@ -6730,22 +6730,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T32" t="n">
-        <v>1942.589711028803</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U32" t="n">
-        <v>1942.589711028803</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="V32" t="n">
-        <v>1942.589711028803</v>
+        <v>1380.832473416767</v>
       </c>
       <c r="W32" t="n">
-        <v>1942.589711028803</v>
+        <v>1380.832473416767</v>
       </c>
       <c r="X32" t="n">
-        <v>1942.589711028803</v>
+        <v>1278.116386754987</v>
       </c>
       <c r="Y32" t="n">
-        <v>1679.636352687331</v>
+        <v>1278.116386754987</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090097</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579554</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773478</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696758</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521804</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I33" t="n">
-        <v>62.57863487475248</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J33" t="n">
-        <v>128.1484679399048</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K33" t="n">
-        <v>271.8704604711964</v>
+        <v>252.3026566214989</v>
       </c>
       <c r="L33" t="n">
-        <v>483.8830449928538</v>
+        <v>464.3152411431562</v>
       </c>
       <c r="M33" t="n">
-        <v>739.131262751822</v>
+        <v>719.5634589021244</v>
       </c>
       <c r="N33" t="n">
-        <v>1006.970642510971</v>
+        <v>987.4028386612736</v>
       </c>
       <c r="O33" t="n">
-        <v>1242.992331264951</v>
+        <v>1223.424527415253</v>
       </c>
       <c r="P33" t="n">
-        <v>1744.011988472551</v>
+        <v>1417.231939017939</v>
       </c>
       <c r="Q33" t="n">
-        <v>1918.25159622554</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S33" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T33" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U33" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V33" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W33" t="n">
-        <v>1161.199263941874</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807663</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445964</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="34">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>537.2707492273303</v>
+        <v>490.5013510001851</v>
       </c>
       <c r="C34" t="n">
-        <v>366.1773767890468</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="D34" t="n">
-        <v>206.6827321119568</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="E34" t="n">
-        <v>206.6827321119568</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="F34" t="n">
-        <v>206.6827321119568</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G34" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H34" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J34" t="n">
-        <v>62.60916429909253</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>130.9109887251281</v>
+        <v>219.6034981877564</v>
       </c>
       <c r="L34" t="n">
-        <v>372.1997937892747</v>
+        <v>633.0972772623925</v>
       </c>
       <c r="M34" t="n">
-        <v>823.4100121751553</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N34" t="n">
-        <v>1262.344238751202</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O34" t="n">
-        <v>1667.931580268703</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P34" t="n">
         <v>1998.558115949588</v>
@@ -6888,22 +6888,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T34" t="n">
-        <v>2023.746077237939</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U34" t="n">
-        <v>1741.00542592453</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V34" t="n">
-        <v>1467.119680864052</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W34" t="n">
-        <v>1188.050016372927</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X34" t="n">
-        <v>949.7061542326099</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y34" t="n">
-        <v>724.9704556213746</v>
+        <v>490.5013510001851</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>404.1120411486771</v>
+        <v>741.6689700612533</v>
       </c>
       <c r="C35" t="n">
-        <v>404.1120411486771</v>
+        <v>741.6689700612533</v>
       </c>
       <c r="D35" t="n">
-        <v>404.1120411486771</v>
+        <v>741.6689700612533</v>
       </c>
       <c r="E35" t="n">
-        <v>404.1120411486771</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F35" t="n">
-        <v>404.1120411486771</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G35" t="n">
         <v>327.3287545781499</v>
       </c>
       <c r="H35" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879084</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501316</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N35" t="n">
-        <v>1272.218803576258</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.017893256779</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P35" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q35" t="n">
-        <v>1966.084838463274</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R35" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303437</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T35" t="n">
-        <v>1812.402164354919</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U35" t="n">
-        <v>1555.529666695154</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V35" t="n">
-        <v>1205.692112031634</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="W35" t="n">
-        <v>1205.692112031634</v>
+        <v>741.6689700612533</v>
       </c>
       <c r="X35" t="n">
-        <v>805.048714200587</v>
+        <v>741.6689700612533</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.1120411486771</v>
+        <v>741.6689700612533</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090097</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579554</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773478</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696758</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521804</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G36" t="n">
-        <v>99.0905735269282</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H36" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I36" t="n">
-        <v>62.57863487475248</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J36" t="n">
-        <v>163.3353526539116</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K36" t="n">
-        <v>664.3550098615121</v>
+        <v>252.3026566214989</v>
       </c>
       <c r="L36" t="n">
-        <v>876.3675943831695</v>
+        <v>464.3152411431562</v>
       </c>
       <c r="M36" t="n">
-        <v>1131.615812142138</v>
+        <v>719.5634589021244</v>
       </c>
       <c r="N36" t="n">
-        <v>1399.455191901287</v>
+        <v>987.4028386612736</v>
       </c>
       <c r="O36" t="n">
-        <v>1635.476880655267</v>
+        <v>1223.424527415253</v>
       </c>
       <c r="P36" t="n">
-        <v>1817.075202091449</v>
+        <v>1417.231939017938</v>
       </c>
       <c r="Q36" t="n">
-        <v>1918.25159622554</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R36" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S36" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T36" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U36" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V36" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W36" t="n">
-        <v>1161.199263941874</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807663</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445964</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1003.048274546781</v>
+        <v>331.9480348527333</v>
       </c>
       <c r="C37" t="n">
-        <v>831.9549021084979</v>
+        <v>331.9480348527333</v>
       </c>
       <c r="D37" t="n">
-        <v>672.4602574314079</v>
+        <v>331.9480348527333</v>
       </c>
       <c r="E37" t="n">
-        <v>511.5494422997273</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F37" t="n">
-        <v>346.9183164103186</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G37" t="n">
-        <v>180.7220212444305</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H37" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I37" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J37" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K37" t="n">
-        <v>219.6034981877568</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>633.0972772623929</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M37" t="n">
-        <v>1084.307495648274</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N37" t="n">
-        <v>1523.24172222432</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O37" t="n">
-        <v>1928.829063741821</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P37" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q37" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104107</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S37" t="n">
-        <v>1972.110075925948</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T37" t="n">
-        <v>1972.110075925948</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="U37" t="n">
-        <v>1689.369424612539</v>
+        <v>1535.682711549933</v>
       </c>
       <c r="V37" t="n">
-        <v>1415.483679552061</v>
+        <v>1261.796966489455</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.483679552061</v>
+        <v>982.7273019983295</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.483679552061</v>
+        <v>744.3834398580129</v>
       </c>
       <c r="Y37" t="n">
-        <v>1190.747980940826</v>
+        <v>519.6477412467776</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>805.0487142005866</v>
+        <v>1284.780540317127</v>
       </c>
       <c r="C38" t="n">
-        <v>394.9241235138567</v>
+        <v>1280.320994382424</v>
       </c>
       <c r="D38" t="n">
-        <v>394.9241235138567</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E38" t="n">
-        <v>394.9241235138567</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F38" t="n">
-        <v>394.9241235138567</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G38" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H38" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746565</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L38" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576257</v>
@@ -7192,7 +7192,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P38" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q38" t="n">
         <v>1966.084838463273</v>
@@ -7201,25 +7201,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>1812.402164354919</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U38" t="n">
-        <v>1555.529666695153</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V38" t="n">
-        <v>1205.692112031634</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W38" t="n">
-        <v>1205.692112031634</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="X38" t="n">
-        <v>805.0487142005866</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="Y38" t="n">
-        <v>805.0487142005866</v>
+        <v>1284.780540317127</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>204.8233649521799</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692776</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I39" t="n">
-        <v>43.01083102505508</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J39" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K39" t="n">
-        <v>252.302656621499</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L39" t="n">
-        <v>564.4940477866401</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M39" t="n">
-        <v>819.7422655456082</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N39" t="n">
-        <v>1087.581645304758</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1323.603334058737</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P39" t="n">
-        <v>1505.20165549492</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
         <v>2024.321847303436</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>747.6824273116424</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="C40" t="n">
-        <v>576.5890548733589</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="D40" t="n">
-        <v>417.0944101962689</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="E40" t="n">
-        <v>256.1835950645884</v>
+        <v>141.8908294744602</v>
       </c>
       <c r="F40" t="n">
-        <v>256.1835950645884</v>
+        <v>141.8908294744602</v>
       </c>
       <c r="G40" t="n">
-        <v>89.98729989870031</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H40" t="n">
         <v>40.48643694606873</v>
@@ -7335,19 +7335,19 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>402.1925459421786</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L40" t="n">
-        <v>501.7072137817917</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M40" t="n">
-        <v>952.9174321676724</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N40" t="n">
-        <v>1391.851658743719</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O40" t="n">
-        <v>1797.43900026122</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P40" t="n">
         <v>1872.284155743751</v>
@@ -7356,28 +7356,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1818.423362863342</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T40" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U40" t="n">
-        <v>1300.637836863246</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V40" t="n">
-        <v>1026.752091802768</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W40" t="n">
-        <v>747.6824273116424</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X40" t="n">
-        <v>747.6824273116424</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y40" t="n">
-        <v>747.6824273116424</v>
+        <v>490.5013510001851</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.100667638947</v>
+        <v>808.3484576694045</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.976076952217</v>
+        <v>733.707112676266</v>
       </c>
       <c r="D41" t="n">
-        <v>1203.976076952217</v>
+        <v>733.707112676266</v>
       </c>
       <c r="E41" t="n">
-        <v>789.6358614691139</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F41" t="n">
-        <v>368.6054494228015</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606874</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J41" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L41" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501312</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R41" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303437</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303437</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.321847303437</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.321847303437</v>
+        <v>1592.752156365283</v>
       </c>
       <c r="W41" t="n">
-        <v>2024.321847303437</v>
+        <v>1208.991855500452</v>
       </c>
       <c r="X41" t="n">
-        <v>2024.321847303437</v>
+        <v>808.3484576694045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2024.321847303437</v>
+        <v>808.3484576694045</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505509</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J42" t="n">
-        <v>208.7594707336904</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K42" t="n">
-        <v>352.481463264982</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L42" t="n">
-        <v>564.4940477866394</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M42" t="n">
-        <v>819.7422655456076</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N42" t="n">
-        <v>1087.581645304757</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O42" t="n">
-        <v>1323.603334058736</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P42" t="n">
-        <v>1505.201655494919</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q42" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R42" t="n">
         <v>2024.321847303436</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>322.4795997594211</v>
+        <v>947.4591973664158</v>
       </c>
       <c r="C43" t="n">
-        <v>322.4795997594211</v>
+        <v>776.3658249281323</v>
       </c>
       <c r="D43" t="n">
-        <v>322.4795997594211</v>
+        <v>616.8711802510422</v>
       </c>
       <c r="E43" t="n">
-        <v>322.4795997594211</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="F43" t="n">
-        <v>157.8484738700124</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48643694606874</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H43" t="n">
-        <v>40.48643694606874</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J43" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>219.6034981877568</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L43" t="n">
-        <v>633.0972772623929</v>
+        <v>501.7072137817916</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.307495648274</v>
+        <v>952.9174321676721</v>
       </c>
       <c r="N43" t="n">
-        <v>1523.24172222432</v>
+        <v>1391.851658743718</v>
       </c>
       <c r="O43" t="n">
-        <v>1928.829063741821</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P43" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q43" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1856.300096062672</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.255221375985</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U43" t="n">
-        <v>1338.514570062577</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="V43" t="n">
-        <v>1064.628825002099</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="W43" t="n">
-        <v>785.559160510973</v>
+        <v>1373.502765900777</v>
       </c>
       <c r="X43" t="n">
-        <v>547.2152983706565</v>
+        <v>1135.15890376046</v>
       </c>
       <c r="Y43" t="n">
-        <v>322.4795997594211</v>
+        <v>1135.15890376046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>867.8952070904973</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="C44" t="n">
-        <v>867.8952070904973</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="D44" t="n">
-        <v>867.8952070904973</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E44" t="n">
-        <v>867.8952070904973</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F44" t="n">
-        <v>446.8647950441848</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606872</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746588</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492901</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752967</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879075</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501312</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P44" t="n">
         <v>1806.502667397418</v>
@@ -7684,16 +7684,16 @@
         <v>1473.79753042052</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.959975757001</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="W44" t="n">
-        <v>867.8952070904973</v>
+        <v>1090.037229555689</v>
       </c>
       <c r="X44" t="n">
-        <v>867.8952070904973</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="Y44" t="n">
-        <v>867.8952070904973</v>
+        <v>731.7926844850894</v>
       </c>
     </row>
     <row r="45">
@@ -7721,43 +7721,43 @@
         <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I45" t="n">
-        <v>62.57863487475245</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J45" t="n">
-        <v>128.1484679399048</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>271.8704604711963</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L45" t="n">
-        <v>483.8830449928536</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M45" t="n">
-        <v>739.1312627518217</v>
+        <v>982.7996667264551</v>
       </c>
       <c r="N45" t="n">
-        <v>1006.970642510971</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O45" t="n">
-        <v>1242.992331264951</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P45" t="n">
-        <v>1424.590652701133</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q45" t="n">
-        <v>1918.251596225539</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S45" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U45" t="n">
         <v>1588.14395921251</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.7801776036667</v>
+        <v>537.846519292828</v>
       </c>
       <c r="C46" t="n">
-        <v>831.9549021084979</v>
+        <v>366.7531468545445</v>
       </c>
       <c r="D46" t="n">
-        <v>672.4602574314079</v>
+        <v>366.7531468545445</v>
       </c>
       <c r="E46" t="n">
-        <v>511.5494422997273</v>
+        <v>205.842331722864</v>
       </c>
       <c r="F46" t="n">
-        <v>346.9183164103185</v>
+        <v>205.842331722864</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7220212444305</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J46" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>219.6034981877562</v>
+        <v>219.6034981877566</v>
       </c>
       <c r="L46" t="n">
-        <v>633.0972772623923</v>
+        <v>633.0972772623927</v>
       </c>
       <c r="M46" t="n">
         <v>1084.307495648273</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.241722224319</v>
+        <v>1523.24172222432</v>
       </c>
       <c r="O46" t="n">
         <v>1928.829063741821</v>
@@ -7833,25 +7833,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1856.300096062672</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T46" t="n">
-        <v>1856.300096062672</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U46" t="n">
-        <v>1573.559444749263</v>
+        <v>1741.581195990028</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.559444749263</v>
+        <v>1467.69545092955</v>
       </c>
       <c r="W46" t="n">
-        <v>1573.559444749263</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="X46" t="n">
-        <v>1335.215582608947</v>
+        <v>950.2819242981077</v>
       </c>
       <c r="Y46" t="n">
-        <v>1110.479883997711</v>
+        <v>725.5462256868724</v>
       </c>
     </row>
   </sheetData>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.70128436951476</v>
+        <v>14.70128436951475</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>85.22243034827619</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>114.1947292904651</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>79.32734311265631</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>50.35504417046698</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.352495282391843</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>199.3688773843011</v>
       </c>
       <c r="L13" t="n">
         <v>181.4890873650642</v>
       </c>
       <c r="M13" t="n">
-        <v>178.0868137369351</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>175.8584291375004</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>138.8172297048875</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>116.68954263221</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.150849970123438</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>11.32829899266264</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>152.2664839798091</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>143.8293245384335</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>225.0925471823059</v>
+        <v>225.0925471823061</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>221.026495953671</v>
       </c>
       <c r="N16" t="n">
-        <v>180.3246405581491</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>231.7094281508406</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>107.9197983652566</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>2.273397238671855</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>12.33241430959899</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>403.8820839126366</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9327,19 +9327,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>5.167781085620078</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>78.12986811408986</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
         <v>127.5494547533709</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1907137812969</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>403.8820839126366</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>23.93045033463838</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9570,16 +9570,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>78.12986811408986</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>160.913406001883</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5356337863142</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>403.8820839126367</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>283.2932254071765</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
@@ -9813,10 +9813,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>89.5883933965946</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>269.5371639076188</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>23.93045033463829</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
@@ -10050,7 +10050,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>23.93045033463852</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>258.9430967094552</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631252</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>23.93045033463829</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>322.6478139105228</v>
+        <v>12.33241430959885</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.80122587767463</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>23.93045033463838</v>
       </c>
       <c r="L34" t="n">
-        <v>143.2061992167006</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10524,7 +10524,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35.54230779192599</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>360.9067319962717</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>12.33241430959839</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10746,7 +10746,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>23.93045033463875</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10755,16 +10755,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>78.12986811408996</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>101.1907137812966</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>403.8820839126366</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631252</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>5.167781085619936</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1907137812959</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>403.8820839126367</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>23.93045033463875</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11232,13 +11232,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>59.89230224281414</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>396.4490397881972</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11457,7 +11457,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>23.93045033463815</v>
+        <v>23.93045033463854</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>186.562410393748</v>
       </c>
       <c r="C11" t="n">
-        <v>212.6379289566783</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337734</v>
       </c>
       <c r="E11" t="n">
-        <v>190.6402558541756</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>197.2635504517526</v>
+        <v>197.2635504517527</v>
       </c>
       <c r="G11" t="n">
         <v>403.2510401841353</v>
@@ -23278,7 +23278,7 @@
         <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380173</v>
+        <v>31.90177044380172</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.8998645763261</v>
@@ -23317,7 +23317,7 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V11" t="n">
-        <v>126.7826216427875</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>305.7964167968637</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>82.73299626909652</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
@@ -23354,7 +23354,7 @@
         <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>93.09630611656611</v>
       </c>
       <c r="T12" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>85.44489691395364</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23433,10 +23433,10 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.43258009724632</v>
+        <v>96.4325800972463</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
-        <v>41.10383867881924</v>
+        <v>14.93269702790687</v>
       </c>
       <c r="U13" t="n">
-        <v>60.37960003122689</v>
+        <v>229.1187410605286</v>
       </c>
       <c r="V13" t="n">
-        <v>51.59033013577661</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>56.72241037211771</v>
+        <v>56.72241037211776</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>16.40386604481685</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.6544768978783</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>130.6525076025012</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>125.0484534305084</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>134.8259761509106</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23515,7 +23515,7 @@
         <v>291.6893039039227</v>
       </c>
       <c r="I14" t="n">
-        <v>24.84282015782121</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>121.2661266753756</v>
+        <v>277.0152930405918</v>
       </c>
       <c r="Y14" t="n">
-        <v>121.5564691440294</v>
+        <v>121.5564691440292</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.0785498519419</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>61.91106066572941</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>91.27661273172934</v>
+        <v>91.27661273172933</v>
       </c>
       <c r="T15" t="n">
         <v>154.3559578564105</v>
@@ -23633,13 +23633,13 @@
         <v>195.3219302724488</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>77.22977617770019</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>45.14260559956367</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23673,7 +23673,7 @@
         <v>141.8377693521858</v>
       </c>
       <c r="I16" t="n">
-        <v>93.9626404994131</v>
+        <v>93.96264049941308</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.69270950293065</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>172.2308025414246</v>
       </c>
       <c r="T16" t="n">
-        <v>234.1383259618035</v>
+        <v>234.1383259618034</v>
       </c>
       <c r="U16" t="n">
-        <v>4.560840389151116</v>
+        <v>4.560840389150826</v>
       </c>
       <c r="V16" t="n">
-        <v>211.6781821907284</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9081306688530049</v>
+        <v>0.9081306688527206</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.2649887824363</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>133.6623822782425</v>
+        <v>377.0036852054405</v>
       </c>
       <c r="G17" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H17" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.54917637520458</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>31.69532826862877</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>17.82783107351452</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H20" t="n">
         <v>283.9738944557603</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.8004861190321</v>
@@ -24031,10 +24031,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>121.2039746976588</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I22" t="n">
-        <v>68.67774701609976</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>101.0353691350404</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>105.7917187746646</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>373.6386345082382</v>
       </c>
       <c r="H23" t="n">
         <v>283.9738944557603</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>30.78761320541932</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>41.80326444576117</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S25" t="n">
         <v>166.3415337283568</v>
@@ -24423,7 +24423,7 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>337.3598952313554</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>319.3398952504201</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.59008136074847</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>38.76660485239658</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>83.80004204681615</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.49796586733679</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S28" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>42.76725058515052</v>
       </c>
       <c r="D29" t="n">
-        <v>61.07593484719069</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
         <v>283.9738944557603</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.8004861190321</v>
@@ -24739,16 +24739,16 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>58.83275178811263</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
         <v>83.80004204681615</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>76.03191685878612</v>
       </c>
       <c r="T31" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>283.9738944557603</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>294.9480380575749</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.603481563333</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>135.1868626918855</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.49796586733679</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S34" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
-        <v>232.1244135749776</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>326.2991208123129</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>1.454602217393017</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>35.28905726699506</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
         <v>83.80004204681615</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.1498459319793</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>232.6944259398202</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>401.6083943045062</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>335.3951592707852</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>64.14398361112166</v>
       </c>
       <c r="H40" t="n">
-        <v>89.82737413227284</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
         <v>83.80004204681615</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>332.1284132366554</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>77.47675216516956</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.8004861190321</v>
@@ -25687,13 +25687,13 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>48.34591565952497</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733679</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>31.00403692575881</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>126.4185768763448</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>41.97486423284334</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>79.46541597368349</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.8319963852019043</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
         <v>83.80004204681615</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
         <v>232.6944259398202</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>314879.0713993525</v>
+        <v>314879.0713993523</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360060.6446330472</v>
+        <v>360060.6446330475</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>546377.0390888464</v>
+        <v>546377.0390888463</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>546377.0390888464</v>
+        <v>546377.0390888463</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>546377.0390888464</v>
+        <v>546377.0390888463</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546377.0390888466</v>
+        <v>546377.0390888464</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546377.0390888463</v>
+        <v>546377.0390888464</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>41226.93184331214</v>
       </c>
       <c r="C2" t="n">
-        <v>41226.93184331214</v>
+        <v>41226.93184331213</v>
       </c>
       <c r="D2" t="n">
         <v>41226.93184331214</v>
       </c>
       <c r="E2" t="n">
-        <v>99214.75234548807</v>
+        <v>99214.75234548801</v>
       </c>
       <c r="F2" t="n">
         <v>113280.4425545801</v>
@@ -26334,28 +26334,28 @@
         <v>171267.2805630951</v>
       </c>
       <c r="I2" t="n">
+        <v>171267.2805630951</v>
+      </c>
+      <c r="J2" t="n">
+        <v>171267.2805630951</v>
+      </c>
+      <c r="K2" t="n">
         <v>171267.2805630952</v>
       </c>
-      <c r="J2" t="n">
-        <v>171267.2805630952</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>171267.2805630951</v>
-      </c>
-      <c r="L2" t="n">
-        <v>171267.2805630952</v>
       </c>
       <c r="M2" t="n">
         <v>171267.2805630952</v>
       </c>
       <c r="N2" t="n">
-        <v>171267.2805630953</v>
+        <v>171267.2805630951</v>
       </c>
       <c r="O2" t="n">
         <v>171267.2805630951</v>
       </c>
       <c r="P2" t="n">
-        <v>171267.280563095</v>
+        <v>171267.2805630952</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>343333.6099712366</v>
+        <v>343333.6099712367</v>
       </c>
       <c r="F3" t="n">
-        <v>51993.88551362333</v>
+        <v>51993.88551362354</v>
       </c>
       <c r="G3" t="n">
-        <v>208934.9480673001</v>
+        <v>208934.9480672998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>54714.3723487748</v>
+        <v>54714.37234877477</v>
       </c>
       <c r="N3" t="n">
-        <v>13670.42408488149</v>
+        <v>13670.42408488159</v>
       </c>
       <c r="O3" t="n">
-        <v>55520.50188128561</v>
+        <v>55520.50188128553</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>21826.02274057701</v>
       </c>
       <c r="E4" t="n">
-        <v>5752.879359012146</v>
+        <v>5752.87935901214</v>
       </c>
       <c r="F4" t="n">
-        <v>7130.994319220026</v>
+        <v>7130.994319220037</v>
       </c>
       <c r="G4" t="n">
         <v>12864.95400786971</v>
@@ -26438,13 +26438,13 @@
         <v>12864.95400786971</v>
       </c>
       <c r="I4" t="n">
-        <v>12864.9540078697</v>
+        <v>12864.95400786971</v>
       </c>
       <c r="J4" t="n">
-        <v>12864.9540078697</v>
+        <v>12864.95400786971</v>
       </c>
       <c r="K4" t="n">
-        <v>12864.9540078697</v>
+        <v>12864.95400786971</v>
       </c>
       <c r="L4" t="n">
         <v>12864.95400786971</v>
@@ -26453,13 +26453,13 @@
         <v>12864.95400786971</v>
       </c>
       <c r="N4" t="n">
-        <v>12864.9540078697</v>
+        <v>12864.95400786971</v>
       </c>
       <c r="O4" t="n">
         <v>12864.9540078697</v>
       </c>
       <c r="P4" t="n">
-        <v>12864.9540078697</v>
+        <v>12864.95400786971</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>20886.4501516283</v>
       </c>
       <c r="F5" t="n">
-        <v>25272.86212941225</v>
+        <v>25272.86212941227</v>
       </c>
       <c r="G5" t="n">
         <v>43385.32273194158</v>
@@ -26502,16 +26502,16 @@
         <v>43385.32273194158</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194159</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="N5" t="n">
         <v>43385.32273194158</v>
       </c>
       <c r="O5" t="n">
-        <v>43385.32273194159</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="P5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380524</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726486</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="E6" t="n">
-        <v>-270758.187136389</v>
+        <v>-271803.3948764461</v>
       </c>
       <c r="F6" t="n">
-        <v>28882.70059232447</v>
+        <v>27920.23220643842</v>
       </c>
       <c r="G6" t="n">
-        <v>-93917.94424401617</v>
+        <v>-94539.31358279288</v>
       </c>
       <c r="H6" t="n">
-        <v>115017.0038232838</v>
+        <v>114395.6344845069</v>
       </c>
       <c r="I6" t="n">
-        <v>115017.0038232839</v>
+        <v>114395.6344845069</v>
       </c>
       <c r="J6" t="n">
-        <v>115017.0038232839</v>
+        <v>114395.6344845069</v>
       </c>
       <c r="K6" t="n">
-        <v>115017.0038232839</v>
+        <v>114395.634484507</v>
       </c>
       <c r="L6" t="n">
-        <v>115017.0038232839</v>
+        <v>114395.6344845069</v>
       </c>
       <c r="M6" t="n">
-        <v>60302.63147450911</v>
+        <v>59681.26213573219</v>
       </c>
       <c r="N6" t="n">
-        <v>101346.5797384025</v>
+        <v>100725.2103996253</v>
       </c>
       <c r="O6" t="n">
-        <v>59496.50194199824</v>
+        <v>58875.13260322136</v>
       </c>
       <c r="P6" t="n">
-        <v>115017.0038232837</v>
+        <v>114395.634484507</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>345.7528191377625</v>
       </c>
       <c r="F3" t="n">
-        <v>391.2988637169118</v>
+        <v>391.298863716912</v>
       </c>
       <c r="G3" t="n">
         <v>578.6986538040985</v>
@@ -26758,28 +26758,28 @@
         <v>578.6986538040985</v>
       </c>
       <c r="I3" t="n">
+        <v>578.6986538040985</v>
+      </c>
+      <c r="J3" t="n">
+        <v>578.6986538040985</v>
+      </c>
+      <c r="K3" t="n">
+        <v>578.6986538040985</v>
+      </c>
+      <c r="L3" t="n">
+        <v>578.6986538040985</v>
+      </c>
+      <c r="M3" t="n">
+        <v>578.6986538040985</v>
+      </c>
+      <c r="N3" t="n">
+        <v>578.6986538040985</v>
+      </c>
+      <c r="O3" t="n">
+        <v>578.6986538040985</v>
+      </c>
+      <c r="P3" t="n">
         <v>578.6986538040986</v>
-      </c>
-      <c r="J3" t="n">
-        <v>578.6986538040986</v>
-      </c>
-      <c r="K3" t="n">
-        <v>578.6986538040986</v>
-      </c>
-      <c r="L3" t="n">
-        <v>578.6986538040986</v>
-      </c>
-      <c r="M3" t="n">
-        <v>578.6986538040986</v>
-      </c>
-      <c r="N3" t="n">
-        <v>578.6986538040986</v>
-      </c>
-      <c r="O3" t="n">
-        <v>578.6986538040986</v>
-      </c>
-      <c r="P3" t="n">
-        <v>578.6986538040985</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>219.5565574740966</v>
       </c>
       <c r="F4" t="n">
-        <v>275.3708371773614</v>
+        <v>275.3708371773616</v>
       </c>
       <c r="G4" t="n">
         <v>506.0804618258591</v>
@@ -26822,16 +26822,16 @@
         <v>506.0804618258591</v>
       </c>
       <c r="M4" t="n">
-        <v>506.0804618258592</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="N4" t="n">
         <v>506.0804618258591</v>
       </c>
       <c r="O4" t="n">
-        <v>506.0804618258592</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="P4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258591</v>
       </c>
     </row>
   </sheetData>
@@ -26971,10 +26971,10 @@
         <v>345.7528191377625</v>
       </c>
       <c r="F3" t="n">
-        <v>45.54604457914934</v>
+        <v>45.54604457914951</v>
       </c>
       <c r="G3" t="n">
-        <v>187.3997900871867</v>
+        <v>187.3997900871865</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>219.5565574740966</v>
       </c>
       <c r="F4" t="n">
-        <v>55.81427970326472</v>
+        <v>55.81427970326502</v>
       </c>
       <c r="G4" t="n">
-        <v>230.7096246484977</v>
+        <v>230.7096246484974</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="N4" t="n">
-        <v>55.8142797032646</v>
+        <v>55.81427970326502</v>
       </c>
       <c r="O4" t="n">
-        <v>230.7096246484977</v>
+        <v>230.7096246484973</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>219.5565574740966</v>
       </c>
       <c r="N4" t="n">
-        <v>55.81427970326472</v>
+        <v>55.81427970326502</v>
       </c>
       <c r="O4" t="n">
-        <v>230.7096246484977</v>
+        <v>230.7096246484974</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>14.23493893063159</v>
       </c>
       <c r="I11" t="n">
-        <v>53.58647461229584</v>
+        <v>53.58647461229585</v>
       </c>
       <c r="J11" t="n">
         <v>117.9712093800751</v>
@@ -31776,7 +31776,7 @@
         <v>248.0142307569801</v>
       </c>
       <c r="O11" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482319</v>
       </c>
       <c r="P11" t="n">
         <v>199.8781410373233</v>
@@ -31785,13 +31785,13 @@
         <v>150.1001597896002</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>87.31214281472353</v>
       </c>
       <c r="S11" t="n">
         <v>31.67373815518297</v>
       </c>
       <c r="T11" t="n">
-        <v>6.084554636283637</v>
+        <v>6.084554636283638</v>
       </c>
       <c r="U11" t="n">
         <v>0.1111968865568682</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510362</v>
+        <v>0.7436947430510363</v>
       </c>
       <c r="H12" t="n">
-        <v>7.182525544729746</v>
+        <v>7.182525544729748</v>
       </c>
       <c r="I12" t="n">
-        <v>25.60527953048524</v>
+        <v>25.60527953048525</v>
       </c>
       <c r="J12" t="n">
-        <v>70.26284412308058</v>
+        <v>70.2628441230806</v>
       </c>
       <c r="K12" t="n">
         <v>120.0903919075</v>
@@ -31852,28 +31852,28 @@
         <v>188.4352864300805</v>
       </c>
       <c r="N12" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551904</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223227</v>
       </c>
       <c r="P12" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322633</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.9319815866551</v>
+        <v>94.93198158665511</v>
       </c>
       <c r="R12" t="n">
-        <v>46.17431045013365</v>
+        <v>46.17431045013366</v>
       </c>
       <c r="S12" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026815</v>
       </c>
       <c r="T12" t="n">
         <v>2.99761170554343</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704188</v>
+        <v>0.04892728572704189</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.623488690248424</v>
+        <v>0.6234886902484241</v>
       </c>
       <c r="H13" t="n">
-        <v>5.54338126420872</v>
+        <v>5.543381264208721</v>
       </c>
       <c r="I13" t="n">
-        <v>18.75000533947079</v>
+        <v>18.7500053394708</v>
       </c>
       <c r="J13" t="n">
         <v>44.08065040056358</v>
@@ -31925,25 +31925,25 @@
         <v>72.43804964886235</v>
       </c>
       <c r="L13" t="n">
-        <v>92.6957640029339</v>
+        <v>92.69576400293391</v>
       </c>
       <c r="M13" t="n">
-        <v>97.73468623594158</v>
+        <v>97.7346862359416</v>
       </c>
       <c r="N13" t="n">
-        <v>95.41077384501573</v>
+        <v>95.41077384501574</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711364</v>
+        <v>88.12729232711365</v>
       </c>
       <c r="P13" t="n">
-        <v>75.40812304604573</v>
+        <v>75.40812304604574</v>
       </c>
       <c r="Q13" t="n">
         <v>52.20867568980213</v>
       </c>
       <c r="R13" t="n">
-        <v>28.03431874517004</v>
+        <v>28.03431874517005</v>
       </c>
       <c r="S13" t="n">
         <v>10.86570744732935</v>
@@ -31952,7 +31952,7 @@
         <v>2.663997131061448</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03400847401355044</v>
+        <v>0.03400847401355045</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.573060758660951</v>
+        <v>1.573060758660952</v>
       </c>
       <c r="H14" t="n">
         <v>16.11010849463647</v>
       </c>
       <c r="I14" t="n">
-        <v>60.64542489827636</v>
+        <v>60.6454248982764</v>
       </c>
       <c r="J14" t="n">
-        <v>133.5115655654</v>
+        <v>133.5115655654001</v>
       </c>
       <c r="K14" t="n">
-        <v>200.0992274795181</v>
+        <v>200.0992274795182</v>
       </c>
       <c r="L14" t="n">
-        <v>248.2407856723882</v>
+        <v>248.2407856723883</v>
       </c>
       <c r="M14" t="n">
-        <v>276.2157049392248</v>
+        <v>276.215704939225</v>
       </c>
       <c r="N14" t="n">
-        <v>280.6851638197703</v>
+        <v>280.6851638197705</v>
       </c>
       <c r="O14" t="n">
-        <v>265.0430409008355</v>
+        <v>265.0430409008356</v>
       </c>
       <c r="P14" t="n">
-        <v>226.2081034213932</v>
+        <v>226.2081034213934</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.8728650018479</v>
+        <v>169.872865001848</v>
       </c>
       <c r="R14" t="n">
-        <v>98.81377788123604</v>
+        <v>98.81377788123609</v>
       </c>
       <c r="S14" t="n">
-        <v>35.84612203798645</v>
+        <v>35.84612203798648</v>
       </c>
       <c r="T14" t="n">
-        <v>6.886073471038316</v>
+        <v>6.886073471038319</v>
       </c>
       <c r="U14" t="n">
-        <v>0.125844860692876</v>
+        <v>0.1258448606928761</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8416617068627914</v>
+        <v>0.841661706862792</v>
       </c>
       <c r="H15" t="n">
-        <v>8.128680168911698</v>
+        <v>8.128680168911702</v>
       </c>
       <c r="I15" t="n">
-        <v>28.97826490733734</v>
+        <v>28.97826490733736</v>
       </c>
       <c r="J15" t="n">
-        <v>79.51857380496224</v>
+        <v>79.5185738049623</v>
       </c>
       <c r="K15" t="n">
         <v>135.9099081647693</v>
       </c>
       <c r="L15" t="n">
-        <v>182.7476438519408</v>
+        <v>182.7476438519409</v>
       </c>
       <c r="M15" t="n">
-        <v>213.2578807257169</v>
+        <v>213.257880725717</v>
       </c>
       <c r="N15" t="n">
-        <v>218.9021822598977</v>
+        <v>218.9021822598978</v>
       </c>
       <c r="O15" t="n">
-        <v>200.2527307552011</v>
+        <v>200.2527307552012</v>
       </c>
       <c r="P15" t="n">
-        <v>160.7204710236501</v>
+        <v>160.7204710236502</v>
       </c>
       <c r="Q15" t="n">
         <v>107.4373785812925</v>
       </c>
       <c r="R15" t="n">
-        <v>52.2568557997793</v>
+        <v>52.25685579977933</v>
       </c>
       <c r="S15" t="n">
-        <v>15.63349705510491</v>
+        <v>15.63349705510492</v>
       </c>
       <c r="T15" t="n">
-        <v>3.392487318451338</v>
+        <v>3.39248731845134</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05537248071465736</v>
+        <v>0.05537248071465738</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7056209017845949</v>
+        <v>0.7056209017845954</v>
       </c>
       <c r="H16" t="n">
-        <v>6.273611290412131</v>
+        <v>6.273611290412134</v>
       </c>
       <c r="I16" t="n">
-        <v>21.21994493730401</v>
+        <v>21.21994493730402</v>
       </c>
       <c r="J16" t="n">
-        <v>49.88739775617086</v>
+        <v>49.88739775617089</v>
       </c>
       <c r="K16" t="n">
-        <v>81.98031931642838</v>
+        <v>81.98031931642842</v>
       </c>
       <c r="L16" t="n">
         <v>104.906583888957</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6092837224706</v>
+        <v>110.6092837224707</v>
       </c>
       <c r="N16" t="n">
-        <v>107.9792421794554</v>
+        <v>107.9792421794555</v>
       </c>
       <c r="O16" t="n">
-        <v>99.73630709951715</v>
+        <v>99.73630709951721</v>
       </c>
       <c r="P16" t="n">
-        <v>85.34164070311134</v>
+        <v>85.34164070311139</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.08612842125368</v>
+        <v>59.08612842125371</v>
       </c>
       <c r="R16" t="n">
-        <v>31.72728163842369</v>
+        <v>31.72728163842371</v>
       </c>
       <c r="S16" t="n">
-        <v>12.29704789746425</v>
+        <v>12.29704789746426</v>
       </c>
       <c r="T16" t="n">
-        <v>3.01492567126145</v>
+        <v>3.014925671261452</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03848841282461431</v>
+        <v>0.03848841282461433</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H23" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I23" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J23" t="n">
         <v>197.4525622846457</v>
@@ -32715,16 +32715,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L23" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M23" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N23" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O23" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P23" t="n">
         <v>334.5430745340568</v>
@@ -32736,7 +32736,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S23" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T23" t="n">
         <v>10.18393309357765</v>
@@ -32782,10 +32782,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H24" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I24" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J24" t="n">
         <v>117.601393411265</v>
@@ -32794,34 +32794,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L24" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M24" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N24" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O24" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P24" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q24" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R24" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S24" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T24" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H25" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I25" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J25" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K25" t="n">
         <v>121.2421114035472</v>
@@ -32876,10 +32876,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M25" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N25" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O25" t="n">
         <v>147.5017486778054</v>
@@ -32888,19 +32888,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R25" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S25" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T25" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H26" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I26" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J26" t="n">
         <v>197.4525622846457</v>
@@ -32952,16 +32952,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L26" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M26" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N26" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O26" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P26" t="n">
         <v>334.5430745340568</v>
@@ -32973,7 +32973,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S26" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T26" t="n">
         <v>10.18393309357765</v>
@@ -33019,10 +33019,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H27" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I27" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J27" t="n">
         <v>117.601393411265</v>
@@ -33031,34 +33031,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L27" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M27" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N27" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O27" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P27" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q27" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R27" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S27" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T27" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H28" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I28" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J28" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K28" t="n">
         <v>121.2421114035472</v>
@@ -33113,10 +33113,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M28" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N28" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O28" t="n">
         <v>147.5017486778054</v>
@@ -33125,19 +33125,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R28" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S28" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T28" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H29" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I29" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J29" t="n">
         <v>197.4525622846457</v>
@@ -33189,16 +33189,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L29" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M29" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N29" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O29" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P29" t="n">
         <v>334.5430745340568</v>
@@ -33210,7 +33210,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S29" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T29" t="n">
         <v>10.18393309357765</v>
@@ -33256,10 +33256,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H30" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I30" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J30" t="n">
         <v>117.601393411265</v>
@@ -33268,34 +33268,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L30" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M30" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N30" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O30" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P30" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q30" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R30" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S30" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T30" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H31" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I31" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J31" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K31" t="n">
         <v>121.2421114035472</v>
@@ -33350,10 +33350,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M31" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N31" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O31" t="n">
         <v>147.5017486778054</v>
@@ -33362,19 +33362,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R31" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S31" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T31" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H32" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I32" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J32" t="n">
         <v>197.4525622846457</v>
@@ -33426,16 +33426,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L32" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M32" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N32" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O32" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P32" t="n">
         <v>334.5430745340568</v>
@@ -33447,7 +33447,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S32" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T32" t="n">
         <v>10.18393309357765</v>
@@ -33493,10 +33493,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H33" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I33" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J33" t="n">
         <v>117.601393411265</v>
@@ -33505,34 +33505,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L33" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M33" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N33" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O33" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P33" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q33" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R33" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S33" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T33" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H34" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I34" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J34" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K34" t="n">
         <v>121.2421114035472</v>
@@ -33587,10 +33587,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M34" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N34" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O34" t="n">
         <v>147.5017486778054</v>
@@ -33599,19 +33599,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R34" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S34" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T34" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H35" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I35" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J35" t="n">
         <v>197.4525622846457</v>
@@ -33663,16 +33663,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L35" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M35" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N35" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O35" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P35" t="n">
         <v>334.5430745340568</v>
@@ -33684,7 +33684,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S35" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T35" t="n">
         <v>10.18393309357765</v>
@@ -33730,10 +33730,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H36" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I36" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J36" t="n">
         <v>117.601393411265</v>
@@ -33742,34 +33742,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L36" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M36" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N36" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O36" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P36" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q36" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R36" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S36" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T36" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H37" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I37" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J37" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K37" t="n">
         <v>121.2421114035472</v>
@@ -33824,10 +33824,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M37" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N37" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O37" t="n">
         <v>147.5017486778054</v>
@@ -33836,19 +33836,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S37" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T37" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H38" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I38" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J38" t="n">
         <v>197.4525622846457</v>
@@ -33900,16 +33900,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L38" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M38" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N38" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O38" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P38" t="n">
         <v>334.5430745340568</v>
@@ -33921,7 +33921,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S38" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T38" t="n">
         <v>10.18393309357765</v>
@@ -33967,10 +33967,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H39" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I39" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J39" t="n">
         <v>117.601393411265</v>
@@ -33979,34 +33979,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L39" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M39" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N39" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O39" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P39" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q39" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R39" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S39" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T39" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H40" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I40" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J40" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K40" t="n">
         <v>121.2421114035472</v>
@@ -34061,10 +34061,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M40" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N40" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O40" t="n">
         <v>147.5017486778054</v>
@@ -34073,19 +34073,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R40" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S40" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T40" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H41" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I41" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J41" t="n">
         <v>197.4525622846457</v>
@@ -34137,16 +34137,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L41" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M41" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N41" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O41" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P41" t="n">
         <v>334.5430745340568</v>
@@ -34158,7 +34158,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S41" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T41" t="n">
         <v>10.18393309357765</v>
@@ -34204,10 +34204,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H42" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I42" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J42" t="n">
         <v>117.601393411265</v>
@@ -34216,34 +34216,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L42" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M42" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N42" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O42" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P42" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q42" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R42" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S42" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T42" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H43" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I43" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J43" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K43" t="n">
         <v>121.2421114035472</v>
@@ -34298,10 +34298,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M43" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N43" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O43" t="n">
         <v>147.5017486778054</v>
@@ -34310,19 +34310,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R43" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S43" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T43" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H44" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J44" t="n">
         <v>197.4525622846457</v>
@@ -34374,16 +34374,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N44" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P44" t="n">
         <v>334.5430745340568</v>
@@ -34395,7 +34395,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T44" t="n">
         <v>10.18393309357765</v>
@@ -34441,10 +34441,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H45" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J45" t="n">
         <v>117.601393411265</v>
@@ -34453,34 +34453,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L45" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M45" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O45" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P45" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q45" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I46" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J46" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K46" t="n">
         <v>121.2421114035472</v>
@@ -34535,10 +34535,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O46" t="n">
         <v>147.5017486778054</v>
@@ -34547,19 +34547,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676711</v>
+        <v>44.64761804676714</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626088</v>
+        <v>87.67187230626091</v>
       </c>
       <c r="L11" t="n">
         <v>123.8608853786927</v>
@@ -35424,13 +35424,13 @@
         <v>155.1019400003608</v>
       </c>
       <c r="O11" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224488</v>
       </c>
       <c r="P11" t="n">
         <v>106.2287777564391</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.06635539044814</v>
+        <v>60.06635539044817</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.89360532308057</v>
+        <v>18.89360532308059</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4870394711608</v>
+        <v>64.26460912288465</v>
       </c>
       <c r="L12" t="n">
-        <v>105.3618281836314</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="M12" t="n">
         <v>130.8710026916631</v>
       </c>
       <c r="N12" t="n">
-        <v>219.5565574740966</v>
+        <v>140.2292143614404</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223227</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945949</v>
+        <v>138.1084868999265</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181638</v>
+        <v>38.23936308181639</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.30544777956411</v>
       </c>
       <c r="K13" t="n">
-        <v>20.18768008979552</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="L13" t="n">
         <v>219.5565574740966</v>
       </c>
       <c r="M13" t="n">
-        <v>219.5565574740966</v>
+        <v>41.46974373716155</v>
       </c>
       <c r="N13" t="n">
-        <v>219.5565574740966</v>
+        <v>43.6981283365963</v>
       </c>
       <c r="O13" t="n">
-        <v>170.8696239590048</v>
+        <v>32.05239425411732</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62828140614095</v>
+        <v>136.317824038351</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>118.3986047832474</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>60.18797423209205</v>
+        <v>60.18797423209213</v>
       </c>
       <c r="K14" t="n">
-        <v>110.962837806301</v>
+        <v>110.9628378063011</v>
       </c>
       <c r="L14" t="n">
-        <v>152.7553876095434</v>
+        <v>152.7553876095435</v>
       </c>
       <c r="M14" t="n">
-        <v>182.9254804821794</v>
+        <v>182.9254804821796</v>
       </c>
       <c r="N14" t="n">
-        <v>187.772873063151</v>
+        <v>187.7728730631512</v>
       </c>
       <c r="O14" t="n">
-        <v>171.8532652750524</v>
+        <v>171.8532652750525</v>
       </c>
       <c r="P14" t="n">
-        <v>132.5587401405091</v>
+        <v>132.5587401405092</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.83906060269581</v>
+        <v>79.83906060269592</v>
       </c>
       <c r="R14" t="n">
-        <v>11.50163506651252</v>
+        <v>11.50163506651258</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.437159441375115</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>28.14933500496223</v>
+        <v>180.4158189847714</v>
       </c>
       <c r="K15" t="n">
-        <v>80.08412538015386</v>
+        <v>80.08412538015395</v>
       </c>
       <c r="L15" t="n">
-        <v>126.6331200410917</v>
+        <v>126.6331200410918</v>
       </c>
       <c r="M15" t="n">
-        <v>155.6935969872995</v>
+        <v>155.6935969872996</v>
       </c>
       <c r="N15" t="n">
-        <v>165.7087888661477</v>
+        <v>165.7087888661478</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5012517552011</v>
+        <v>142.5012517552012</v>
       </c>
       <c r="P15" t="n">
-        <v>250.2901605592798</v>
+        <v>106.4608360208464</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.74476007645376</v>
+        <v>50.74476007645382</v>
       </c>
       <c r="R15" t="n">
-        <v>82.11495616607212</v>
+        <v>82.11495616607215</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.11219513517139</v>
+        <v>64.11219513517142</v>
       </c>
       <c r="K16" t="n">
-        <v>29.72994975736155</v>
+        <v>238.0937816621233</v>
       </c>
       <c r="L16" t="n">
-        <v>275.3708371773614</v>
+        <v>275.3708371773616</v>
       </c>
       <c r="M16" t="n">
-        <v>54.34434122369059</v>
+        <v>275.3708371773616</v>
       </c>
       <c r="N16" t="n">
-        <v>236.5912372291851</v>
+        <v>56.26659667103603</v>
       </c>
       <c r="O16" t="n">
-        <v>275.3708371773614</v>
+        <v>43.66140902652088</v>
       </c>
       <c r="P16" t="n">
-        <v>29.56179906320656</v>
+        <v>137.4815974284632</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.276057514699</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J18" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K18" t="n">
-        <v>157.5061441391864</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L18" t="n">
         <v>214.1541257794519</v>
@@ -35983,7 +35983,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q18" t="n">
-        <v>506.0804618258591</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R18" t="n">
         <v>107.1416677554515</v>
@@ -36047,19 +36047,19 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L19" t="n">
-        <v>105.6876475902797</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M19" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N19" t="n">
-        <v>443.3679056323699</v>
+        <v>186.1095904660704</v>
       </c>
       <c r="O19" t="n">
-        <v>409.6841833510116</v>
+        <v>91.42685060480903</v>
       </c>
       <c r="P19" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q19" t="n">
         <v>153.5734258178642</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J21" t="n">
-        <v>167.4228683925619</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K21" t="n">
         <v>145.1737298295874</v>
@@ -36220,10 +36220,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q21" t="n">
-        <v>506.0804618258591</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R21" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K22" t="n">
-        <v>92.92219217911871</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L22" t="n">
         <v>417.6704839137738</v>
@@ -36290,16 +36290,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N22" t="n">
-        <v>443.3679056323699</v>
+        <v>186.1095904660704</v>
       </c>
       <c r="O22" t="n">
-        <v>409.6841833510116</v>
+        <v>91.42685060480903</v>
       </c>
       <c r="P22" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J23" t="n">
-        <v>124.1289709513378</v>
+        <v>124.128970951338</v>
       </c>
       <c r="K23" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L23" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M23" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N23" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O23" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P23" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R23" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471049</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.3153514431149</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J24" t="n">
-        <v>66.232154611265</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K24" t="n">
-        <v>145.1737298295874</v>
+        <v>246.3644436108843</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794519</v>
       </c>
       <c r="M24" t="n">
-        <v>418.7398885866993</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
-        <v>506.0804618258591</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P24" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.1983779132225</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R24" t="n">
-        <v>107.1416677554516</v>
+        <v>18.28336828375328</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.34618924547859</v>
+        <v>22.34618924547858</v>
       </c>
       <c r="K25" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L25" t="n">
-        <v>383.8130919118361</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M25" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N25" t="n">
         <v>443.3679056323699</v>
@@ -36533,10 +36533,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.02397106449332</v>
+        <v>115.6123644610879</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J26" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7938168949557</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L26" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M26" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N26" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O26" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P26" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q26" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R26" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471063</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.549893009077124</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
-        <v>66.232154611265</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
         <v>145.1737298295874</v>
@@ -36682,22 +36682,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N27" t="n">
-        <v>506.0804618258591</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O27" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P27" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q27" t="n">
-        <v>371.7355418208413</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R27" t="n">
-        <v>18.28336828375331</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K28" t="n">
-        <v>92.92219217911865</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L28" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
         <v>443.3679056323699</v>
@@ -36770,10 +36770,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P28" t="n">
-        <v>70.43338606845134</v>
+        <v>94.36383640308986</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.02397106449332</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J29" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L29" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M29" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N29" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O29" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P29" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q29" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R29" t="n">
-        <v>58.82526145470995</v>
+        <v>58.82526145471049</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077124</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J30" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K30" t="n">
-        <v>145.1737298295874</v>
+        <v>246.3644436108843</v>
       </c>
       <c r="L30" t="n">
         <v>214.1541257794519</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N30" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O30" t="n">
-        <v>497.3488429255961</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P30" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.1983779132225</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375331</v>
+        <v>18.28336828375328</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K31" t="n">
-        <v>68.99174184448036</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L31" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594754</v>
+        <v>215.6404327273627</v>
       </c>
       <c r="N31" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O31" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P31" t="n">
-        <v>94.36383640308964</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.02397106449332</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J32" t="n">
-        <v>124.1289709513375</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L32" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M32" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N32" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O32" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P32" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q32" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R32" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471063</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>22.3153514431149</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J33" t="n">
-        <v>66.232154611265</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K33" t="n">
         <v>145.1737298295874</v>
@@ -37156,22 +37156,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N33" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O33" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P33" t="n">
+        <v>195.7650622249351</v>
+      </c>
+      <c r="Q33" t="n">
         <v>506.0804618258591</v>
       </c>
-      <c r="Q33" t="n">
-        <v>175.9996037908971</v>
-      </c>
       <c r="R33" t="n">
-        <v>107.1416677554516</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.34618924547859</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K34" t="n">
-        <v>68.99174184448036</v>
+        <v>92.92219217911871</v>
       </c>
       <c r="L34" t="n">
-        <v>243.7260657213602</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
         <v>443.3679056323699</v>
@@ -37244,10 +37244,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P34" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.02397106449332</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J35" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K35" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L35" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M35" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N35" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O35" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P35" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q35" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R35" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471049</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>22.3153514431149</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J36" t="n">
-        <v>101.774462403191</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K36" t="n">
-        <v>506.0804618258592</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L36" t="n">
         <v>214.1541257794519</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N36" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O36" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P36" t="n">
-        <v>183.4326479153363</v>
+        <v>195.7650622249347</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132225</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R36" t="n">
-        <v>107.1416677554516</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K37" t="n">
-        <v>92.92219217911911</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M37" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O37" t="n">
-        <v>409.6841833510116</v>
+        <v>169.556718718899</v>
       </c>
       <c r="P37" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.02397106449332</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J38" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K38" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L38" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M38" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N38" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O38" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P38" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q38" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R38" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471049</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.549893009077124</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>66.232154611265</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L39" t="n">
-        <v>315.3448395607485</v>
+        <v>214.1541257794519</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P39" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q39" t="n">
-        <v>506.0804618258591</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375331</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L40" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
-        <v>455.7678973594754</v>
+        <v>215.6404327273627</v>
       </c>
       <c r="N40" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O40" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P40" t="n">
-        <v>75.60116715407129</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q40" t="n">
         <v>153.5734258178642</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J41" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K41" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L41" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M41" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O41" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P41" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q41" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R41" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471049</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.549893009077124</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
-        <v>167.4228683925609</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
@@ -37867,22 +37867,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N42" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O42" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P42" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q42" t="n">
-        <v>506.0804618258592</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R42" t="n">
-        <v>18.28336828375331</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K43" t="n">
-        <v>92.92219217911911</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L43" t="n">
-        <v>417.6704839137739</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N43" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
-        <v>409.6841833510116</v>
+        <v>151.3191528476232</v>
       </c>
       <c r="P43" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.02397106449332</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M44" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.31535144311488</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J45" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
         <v>145.1737298295874</v>
@@ -38104,22 +38104,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O45" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P45" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q45" t="n">
-        <v>498.6474177014196</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R45" t="n">
-        <v>107.1416677554515</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K46" t="n">
-        <v>92.92219217911848</v>
+        <v>92.92219217911889</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137738</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N46" t="n">
         <v>443.3679056323699</v>
@@ -38195,7 +38195,7 @@
         <v>70.43338606845134</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.02397106449331</v>
+        <v>26.02397106449332</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
